--- a/MWS/Application/PcaInvoiceDataConverter/PCA請求データコンバータ.xlsx
+++ b/MWS/Application/PcaInvoiceDataConverter/PCA請求データコンバータ.xlsx
@@ -2,13 +2,13 @@
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24701"/>
-  <workbookPr defaultThemeVersion="166925"/>
+  <workbookPr codeName="ThisWorkbook" defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\SourceTree\MWS\Application\PcaInvoiceDataConverter\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{148D2C5D-B1D0-443E-A6E6-363A0B6F9BB7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{315DFCCA-323F-4AFA-AE60-E2CF75508C70}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="17640" activeTab="1" xr2:uid="{DA4BA65C-A3D5-4EE8-80BF-DAC8457D3D16}"/>
   </bookViews>
@@ -16,63 +16,6 @@
     <sheet name="事前準備" sheetId="2" r:id="rId1"/>
     <sheet name="基本データ" sheetId="3" r:id="rId2"/>
   </sheets>
-  <externalReferences>
-    <externalReference r:id="rId3"/>
-  </externalReferences>
-  <definedNames>
-    <definedName name="_０円請求件数">[1]基本データ!$C$47</definedName>
-    <definedName name="AGREX口振通知書件数">基本データ!$F$27</definedName>
-    <definedName name="APLUS送信ファイル">基本データ!$C$8</definedName>
-    <definedName name="_xlnm.Print_Area" localSheetId="1">基本データ!$B$3:$G$49</definedName>
-    <definedName name="WEB請求書ファイルフォルダ">基本データ!$C$20</definedName>
-    <definedName name="WEB請求書請求金額">基本データ!$F$29</definedName>
-    <definedName name="ＷＥＢ請求書発行関連基本データ">基本データ!$B$15:$G$29</definedName>
-    <definedName name="Ｗｅｂ請求書番号基数">基本データ!$C$16</definedName>
-    <definedName name="マイナス請求金額">[1]基本データ!$F$46</definedName>
-    <definedName name="マイナス請求件数">[1]基本データ!$C$46</definedName>
-    <definedName name="銀行振込請求一覧ファイル">基本データ!$C$37</definedName>
-    <definedName name="銀行振込請求一覧件数">基本データ!$C$41</definedName>
-    <definedName name="銀行振込請求一覧請求金額">基本データ!$F$41</definedName>
-    <definedName name="銀行振込請求期間開始日">基本データ!$C$35</definedName>
-    <definedName name="銀行振込請求期間終了日">基本データ!$E$35</definedName>
-    <definedName name="銀行振込請求金額">[1]基本データ!$F$45</definedName>
-    <definedName name="銀行振込請求件数">[1]基本データ!$C$45</definedName>
-    <definedName name="銀行振込請求書ファイル">基本データ!$C$40</definedName>
-    <definedName name="銀行振込請求書ファイルフォルダ">基本データ!$C$39</definedName>
-    <definedName name="銀行振込請求書請求日">基本データ!$C$34</definedName>
-    <definedName name="銀行振込請求書発行関連基本データ">基本データ!$B$32:$G$45</definedName>
-    <definedName name="銀行振込請求書番号基数">基本データ!$C$33</definedName>
-    <definedName name="銀行振込請求明細ファイル">基本データ!$C$38</definedName>
-    <definedName name="銀行振込入金期限日">基本データ!$C$36</definedName>
-    <definedName name="結果データ">基本データ!$A$3:$G$47</definedName>
-    <definedName name="結果データシートファイル出力フォルダ">基本データ!$C$47</definedName>
-    <definedName name="顧客情報ファイル">基本データ!#REF!</definedName>
-    <definedName name="口座振替関連基本データ">基本データ!$B$4:$G$12</definedName>
-    <definedName name="口座振替請求なし件数">基本データ!$C$28</definedName>
-    <definedName name="口座振替請求一覧ファイル">基本データ!$C$6</definedName>
-    <definedName name="口座振替請求一覧件数">基本データ!$C$9</definedName>
-    <definedName name="口座振替請求一覧請求金額">基本データ!$F$9</definedName>
-    <definedName name="口座振替請求期間開始日">基本データ!$C$18</definedName>
-    <definedName name="口座振替請求期間終了日">基本データ!$E$18</definedName>
-    <definedName name="口座振替請求金額">基本データ!$F$12</definedName>
-    <definedName name="口座振替請求件数">基本データ!$C$12</definedName>
-    <definedName name="口座振替請求日">基本データ!$C$17</definedName>
-    <definedName name="口座振替請求明細ファイル">基本データ!$C$19</definedName>
-    <definedName name="口座振替日">[1]基本データ!$C$8</definedName>
-    <definedName name="口座振替不可件数">基本データ!$C$10</definedName>
-    <definedName name="口座振替不可請求額">基本データ!$F$10</definedName>
-    <definedName name="口座振替不要件数">基本データ!$C$11</definedName>
-    <definedName name="口座振替不要請求額">基本データ!$F$11</definedName>
-    <definedName name="口振通知書ファイル">基本データ!$C$26</definedName>
-    <definedName name="口振通知書ファイルフォルダ">基本データ!$C$25</definedName>
-    <definedName name="請求なし件数">[1]基本データ!$C$31</definedName>
-    <definedName name="請求金額あり件数">[1]基本データ!$C$32</definedName>
-    <definedName name="請求書ヘッダファイル">基本データ!$C$21</definedName>
-    <definedName name="請求書明細記事行ファイル">基本データ!$C$24</definedName>
-    <definedName name="請求書明細消費税行ファイル">基本データ!$C$23</definedName>
-    <definedName name="請求書明細売上行ファイル">基本データ!$C$22</definedName>
-    <definedName name="送信ファイルフォルダ">基本データ!$C$7</definedName>
-  </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -408,10 +351,6 @@
     <phoneticPr fontId="4"/>
   </si>
   <si>
-    <t>D:\_●営業管理部\_営業管理部ツール\APPID177 PCA請求データコンバーター\develop\20230627\口座振替送信</t>
-    <phoneticPr fontId="4"/>
-  </si>
-  <si>
     <t>APLUS送信ファイル</t>
     <rPh sb="5" eb="7">
       <t>ソウシン</t>
@@ -595,13 +534,6 @@
     <phoneticPr fontId="4"/>
   </si>
   <si>
-    <t>D:\_●営業管理部\_営業管理部ツール\APPID177 PCA請求データコンバーター\develop\20230627\WEB請求書</t>
-    <rPh sb="65" eb="68">
-      <t>セイキュウショ</t>
-    </rPh>
-    <phoneticPr fontId="4"/>
-  </si>
-  <si>
     <t>WEB請求書ヘッダファイル</t>
     <rPh sb="3" eb="6">
       <t>セイキュウショ</t>
@@ -684,10 +616,6 @@
     <phoneticPr fontId="4"/>
   </si>
   <si>
-    <t>D:\_●営業管理部\_営業管理部ツール\APPID177 PCA請求データコンバーター\develop\20230627\AGREX送信</t>
-    <phoneticPr fontId="4"/>
-  </si>
-  <si>
     <t>AGREX口振通知書ファイル</t>
     <rPh sb="5" eb="7">
       <t>コウフリ</t>
@@ -814,13 +742,6 @@
     <phoneticPr fontId="4"/>
   </si>
   <si>
-    <t>D:\_●営業管理部\_営業管理部ツール\APPID177 PCA請求データコンバーター\develop\20230627\AGREX送信</t>
-    <rPh sb="67" eb="69">
-      <t>ソウシン</t>
-    </rPh>
-    <phoneticPr fontId="4"/>
-  </si>
-  <si>
     <t>AGREX請求書ファイル</t>
     <rPh sb="5" eb="8">
       <t>セイキュウショ</t>
@@ -902,7 +823,29 @@
     <phoneticPr fontId="4"/>
   </si>
   <si>
-    <t>D:\_●営業管理部\_営業管理部ツール\APPID177 PCA請求データコンバーター\develop\20230627</t>
+    <t>D:\SourceTree\MWS\Application\PcaInvoiceDataConverter\bin\Debug\口座振替送信</t>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <t>D:\SourceTree\MWS\Application\PcaInvoiceDataConverter\bin\Debug\WEB請求書</t>
+    <rPh sb="67" eb="70">
+      <t>セイキュウショ</t>
+    </rPh>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <t>D:\SourceTree\MWS\Application\PcaInvoiceDataConverter\bin\Debug\AGREX送信</t>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <t>D:\SourceTree\MWS\Application\PcaInvoiceDataConverter\bin\Debug\AGREX送信</t>
+    <rPh sb="69" eb="71">
+      <t>ソウシン</t>
+    </rPh>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <t>D:\SourceTree\MWS\Application\PcaInvoiceDataConverter\bin\Debug</t>
     <phoneticPr fontId="4"/>
   </si>
 </sst>
@@ -1486,70 +1429,6 @@
     <xdr:clientData/>
   </xdr:twoCellAnchor>
 </xdr:wsDr>
-</file>
-
-<file path=xl/externalLinks/externalLink1.xml><?xml version="1.0" encoding="utf-8"?>
-<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
-  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
-    <sheetNames>
-      <sheetName val="事前準備"/>
-      <sheetName val="基本データ"/>
-      <sheetName val="顧客情報"/>
-      <sheetName val="請求一覧"/>
-      <sheetName val="請求明細"/>
-      <sheetName val="口振不可"/>
-      <sheetName val="口振不要"/>
-      <sheetName val="送信データ"/>
-    </sheetNames>
-    <sheetDataSet>
-      <sheetData sheetId="0" refreshError="1"/>
-      <sheetData sheetId="1">
-        <row r="8">
-          <cell r="C8">
-            <v>45104</v>
-          </cell>
-        </row>
-        <row r="31">
-          <cell r="C31">
-            <v>0</v>
-          </cell>
-        </row>
-        <row r="32">
-          <cell r="C32">
-            <v>0</v>
-          </cell>
-        </row>
-        <row r="45">
-          <cell r="C45">
-            <v>0</v>
-          </cell>
-          <cell r="F45">
-            <v>0</v>
-          </cell>
-        </row>
-        <row r="46">
-          <cell r="C46">
-            <v>0</v>
-          </cell>
-          <cell r="F46">
-            <v>0</v>
-          </cell>
-        </row>
-        <row r="47">
-          <cell r="C47">
-            <v>0</v>
-          </cell>
-        </row>
-      </sheetData>
-      <sheetData sheetId="2" refreshError="1"/>
-      <sheetData sheetId="3" refreshError="1"/>
-      <sheetData sheetId="4" refreshError="1"/>
-      <sheetData sheetId="5" refreshError="1"/>
-      <sheetData sheetId="6" refreshError="1"/>
-      <sheetData sheetId="7" refreshError="1"/>
-    </sheetDataSet>
-  </externalBook>
-</externalLink>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -2093,7 +1972,9 @@
   </sheetPr>
   <dimension ref="A2:M47"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0"/>
+    <sheetView tabSelected="1" topLeftCell="A4" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="F29" sqref="F29"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.4"/>
   <cols>
@@ -2128,7 +2009,7 @@
         <v>45104</v>
       </c>
       <c r="D5" s="10" t="str">
-        <f>"(" &amp; TEXT(口座振替日,"aaa") &amp; ")"</f>
+        <f>"(" &amp; TEXT(C5,"aaa") &amp; ")"</f>
         <v>(火)</v>
       </c>
     </row>
@@ -2145,7 +2026,7 @@
         <v>34</v>
       </c>
       <c r="C7" s="12" t="s">
-        <v>35</v>
+        <v>86</v>
       </c>
       <c r="D7" s="12"/>
       <c r="E7" s="12"/>
@@ -2159,96 +2040,100 @@
     </row>
     <row r="8" spans="1:13" ht="17.25" thickBot="1" x14ac:dyDescent="0.45">
       <c r="B8" s="8" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="C8" s="27"/>
     </row>
     <row r="9" spans="1:13" ht="17.25" thickBot="1" x14ac:dyDescent="0.45">
       <c r="B9" s="14" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="C9" s="25">
         <v>0</v>
       </c>
       <c r="D9" s="15" t="s">
+        <v>37</v>
+      </c>
+      <c r="E9" s="16" t="s">
         <v>38</v>
-      </c>
-      <c r="E9" s="16" t="s">
-        <v>39</v>
       </c>
       <c r="F9" s="25">
         <v>0</v>
       </c>
       <c r="G9" s="17" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
     </row>
     <row r="10" spans="1:13" x14ac:dyDescent="0.4">
       <c r="B10" s="18" t="s">
+        <v>40</v>
+      </c>
+      <c r="C10" s="26">
+        <v>0</v>
+      </c>
+      <c r="D10" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="E10" s="18" t="s">
         <v>41</v>
       </c>
-      <c r="C10" s="26"/>
-      <c r="D10" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="E10" s="18" t="s">
-        <v>42</v>
-      </c>
-      <c r="F10" s="26"/>
+      <c r="F10" s="26">
+        <v>0</v>
+      </c>
       <c r="G10" s="1" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
     </row>
     <row r="11" spans="1:13" ht="17.25" thickBot="1" x14ac:dyDescent="0.45">
       <c r="B11" s="18" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="C11" s="26">
         <v>0</v>
       </c>
       <c r="D11" s="1" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="E11" s="18" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F11" s="26">
         <v>0</v>
       </c>
       <c r="G11" s="1" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
     </row>
     <row r="12" spans="1:13" ht="17.25" thickBot="1" x14ac:dyDescent="0.45">
       <c r="B12" s="14" t="s">
+        <v>44</v>
+      </c>
+      <c r="C12" s="25">
+        <f>C9-C10-C11</f>
+        <v>0</v>
+      </c>
+      <c r="D12" s="15" t="s">
+        <v>37</v>
+      </c>
+      <c r="E12" s="16" t="s">
         <v>45</v>
       </c>
-      <c r="C12" s="25">
-        <f>C9 - C10 - C11</f>
+      <c r="F12" s="25">
+        <f>F9-F10-F11</f>
         <v>0</v>
       </c>
-      <c r="D12" s="15" t="s">
-        <v>38</v>
-      </c>
-      <c r="E12" s="16" t="s">
-        <v>46</v>
-      </c>
-      <c r="F12" s="25">
-        <f>F9 - F10 - F11</f>
-        <v>0</v>
-      </c>
       <c r="G12" s="17" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
     </row>
     <row r="15" spans="1:13" x14ac:dyDescent="0.4">
       <c r="B15" s="6" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
     </row>
     <row r="16" spans="1:13" x14ac:dyDescent="0.4">
       <c r="B16" s="8" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="C16" s="11">
         <v>23309977</v>
@@ -2265,13 +2150,13 @@
     </row>
     <row r="18" spans="2:13" x14ac:dyDescent="0.4">
       <c r="B18" s="8" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="C18" s="9">
         <v>45057</v>
       </c>
       <c r="D18" s="10" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="E18" s="9">
         <v>45087</v>
@@ -2279,18 +2164,18 @@
     </row>
     <row r="19" spans="2:13" x14ac:dyDescent="0.4">
       <c r="B19" s="8" t="s">
+        <v>50</v>
+      </c>
+      <c r="C19" s="28" t="s">
         <v>51</v>
-      </c>
-      <c r="C19" s="28" t="s">
-        <v>52</v>
       </c>
     </row>
     <row r="20" spans="2:13" x14ac:dyDescent="0.4">
       <c r="B20" s="8" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="C20" s="12" t="s">
-        <v>54</v>
+        <v>87</v>
       </c>
       <c r="D20" s="12"/>
       <c r="E20" s="12"/>
@@ -2304,42 +2189,42 @@
     </row>
     <row r="21" spans="2:13" x14ac:dyDescent="0.4">
       <c r="B21" s="8" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="C21" s="27" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
     </row>
     <row r="22" spans="2:13" x14ac:dyDescent="0.4">
       <c r="B22" s="8" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="C22" s="27" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
     </row>
     <row r="23" spans="2:13" x14ac:dyDescent="0.4">
       <c r="B23" s="8" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="C23" s="27" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
     </row>
     <row r="24" spans="2:13" x14ac:dyDescent="0.4">
       <c r="B24" s="8" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="C24" s="27" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
     </row>
     <row r="25" spans="2:13" x14ac:dyDescent="0.4">
       <c r="B25" s="8" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="C25" s="12" t="s">
-        <v>64</v>
+        <v>88</v>
       </c>
       <c r="D25" s="12"/>
       <c r="E25" s="12"/>
@@ -2353,76 +2238,76 @@
     </row>
     <row r="26" spans="2:13" x14ac:dyDescent="0.4">
       <c r="B26" s="8" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="C26" s="27"/>
       <c r="I26" s="13"/>
     </row>
     <row r="27" spans="2:13" x14ac:dyDescent="0.4">
       <c r="B27" s="20" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="C27" s="26">
-        <f>請求金額あり件数+請求なし件数</f>
         <v>0</v>
       </c>
       <c r="D27" s="1" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="E27" s="20" t="s">
-        <v>67</v>
+        <v>64</v>
       </c>
       <c r="F27" s="26">
         <v>0</v>
       </c>
       <c r="G27" s="1" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
     </row>
     <row r="28" spans="2:13" ht="17.25" thickBot="1" x14ac:dyDescent="0.45">
       <c r="B28" s="20" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
       <c r="C28" s="26">
         <v>0</v>
       </c>
       <c r="D28" s="1" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
     <row r="29" spans="2:13" ht="17.25" thickBot="1" x14ac:dyDescent="0.45">
       <c r="B29" s="14" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
       <c r="C29" s="25">
+        <f>C27-C28</f>
         <v>0</v>
       </c>
       <c r="D29" s="15" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="E29" s="16" t="s">
-        <v>71</v>
+        <v>68</v>
       </c>
       <c r="F29" s="25">
         <v>0</v>
       </c>
       <c r="G29" s="17" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
     </row>
     <row r="30" spans="2:13" x14ac:dyDescent="0.4">
       <c r="B30" s="21" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
     </row>
     <row r="32" spans="2:13" x14ac:dyDescent="0.4">
       <c r="B32" s="6" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
     </row>
     <row r="33" spans="2:13" x14ac:dyDescent="0.4">
       <c r="B33" s="8" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
       <c r="C33" s="11">
         <v>135674</v>
@@ -2431,7 +2316,7 @@
     </row>
     <row r="34" spans="2:13" x14ac:dyDescent="0.4">
       <c r="B34" s="8" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
       <c r="C34" s="9">
         <v>45104</v>
@@ -2439,13 +2324,13 @@
     </row>
     <row r="35" spans="2:13" x14ac:dyDescent="0.4">
       <c r="B35" s="8" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="C35" s="9">
         <v>45057</v>
       </c>
       <c r="D35" s="10" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="E35" s="9">
         <v>45087</v>
@@ -2453,7 +2338,7 @@
     </row>
     <row r="36" spans="2:13" x14ac:dyDescent="0.4">
       <c r="B36" s="8" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="C36" s="9">
         <v>45107</v>
@@ -2464,24 +2349,24 @@
         <v>32</v>
       </c>
       <c r="C37" s="28" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="D37" s="10"/>
     </row>
     <row r="38" spans="2:13" x14ac:dyDescent="0.4">
       <c r="B38" s="8" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="C38" s="28" t="s">
-        <v>78</v>
+        <v>75</v>
       </c>
     </row>
     <row r="39" spans="2:13" x14ac:dyDescent="0.4">
       <c r="B39" s="8" t="s">
-        <v>79</v>
+        <v>76</v>
       </c>
       <c r="C39" s="12" t="s">
-        <v>80</v>
+        <v>89</v>
       </c>
       <c r="D39" s="12"/>
       <c r="E39" s="12"/>
@@ -2495,108 +2380,108 @@
     </row>
     <row r="40" spans="2:13" ht="17.25" thickBot="1" x14ac:dyDescent="0.45">
       <c r="B40" s="8" t="s">
-        <v>81</v>
+        <v>77</v>
       </c>
       <c r="C40" s="27"/>
     </row>
     <row r="41" spans="2:13" ht="17.25" thickBot="1" x14ac:dyDescent="0.45">
       <c r="B41" s="14" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="C41" s="25">
         <v>0</v>
       </c>
       <c r="D41" s="15" t="s">
+        <v>37</v>
+      </c>
+      <c r="E41" s="16" t="s">
         <v>38</v>
-      </c>
-      <c r="E41" s="16" t="s">
-        <v>39</v>
       </c>
       <c r="F41" s="25">
         <v>0</v>
       </c>
       <c r="G41" s="17" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
     </row>
     <row r="42" spans="2:13" x14ac:dyDescent="0.4">
       <c r="B42" s="20" t="s">
-        <v>82</v>
+        <v>78</v>
       </c>
       <c r="C42" s="26">
         <v>0</v>
       </c>
       <c r="D42" s="1" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="E42" s="18" t="s">
-        <v>83</v>
+        <v>79</v>
       </c>
       <c r="F42" s="26">
         <v>0</v>
       </c>
       <c r="G42" s="1" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
     </row>
     <row r="43" spans="2:13" x14ac:dyDescent="0.4">
       <c r="B43" s="20" t="s">
-        <v>84</v>
+        <v>80</v>
       </c>
       <c r="C43" s="26">
         <v>0</v>
       </c>
       <c r="D43" s="1" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="E43" s="18" t="s">
-        <v>85</v>
+        <v>81</v>
       </c>
       <c r="F43" s="26">
         <v>0</v>
       </c>
       <c r="G43" s="1" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
     </row>
     <row r="44" spans="2:13" ht="17.25" thickBot="1" x14ac:dyDescent="0.45">
       <c r="B44" s="20" t="s">
-        <v>86</v>
+        <v>82</v>
       </c>
       <c r="C44" s="26">
         <v>0</v>
       </c>
       <c r="D44" s="1" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="E44" s="22"/>
       <c r="F44" s="19"/>
     </row>
     <row r="45" spans="2:13" ht="17.25" thickBot="1" x14ac:dyDescent="0.45">
       <c r="B45" s="14" t="s">
-        <v>87</v>
+        <v>83</v>
       </c>
       <c r="C45" s="25">
-        <f>銀行振込請求件数+マイナス請求件数+_０円請求件数</f>
+        <f>C42+C43+C44</f>
         <v>0</v>
       </c>
       <c r="D45" s="15" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="E45" s="16" t="s">
-        <v>88</v>
+        <v>84</v>
       </c>
       <c r="F45" s="25">
-        <f>銀行振込請求金額+マイナス請求金額</f>
+        <f>F42+F43</f>
         <v>0</v>
       </c>
       <c r="G45" s="17" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
     </row>
     <row r="47" spans="2:13" x14ac:dyDescent="0.4">
       <c r="B47" s="8" t="s">
-        <v>89</v>
+        <v>85</v>
       </c>
       <c r="C47" s="23" t="s">
         <v>90</v>
@@ -2614,13 +2499,13 @@
   </sheetData>
   <phoneticPr fontId="1"/>
   <hyperlinks>
-    <hyperlink ref="C7" r:id="rId1" display="\\tasksv\_RemoteApp入出力ファイル連携用\AppID177_PCA請求データコンバータ\口座振替送信" xr:uid="{36DCBF8F-91B5-4F4A-A742-42F8BA5D2C47}"/>
-    <hyperlink ref="C20" r:id="rId2" display="\\tasksv\_RemoteApp入出力ファイル連携用\AppID177_PCA請求データコンバータ\WEB請求書" xr:uid="{B67B3369-09DB-4FC7-A855-3E53D3785A50}"/>
-    <hyperlink ref="C39" r:id="rId3" display="\\xenappsv\共有フォルダ\PCA請求データコンバータ\AGREX送信" xr:uid="{F2066297-CF85-4071-BCFE-90922FA5BA14}"/>
-    <hyperlink ref="C47" r:id="rId4" display="\\xenappsv\共有フォルダ\PCA請求データコンバータ" xr:uid="{95268AD7-155C-4485-94AA-49F352970B71}"/>
-    <hyperlink ref="C25" r:id="rId5" display="\\xenappsv\共有フォルダ\PCA請求データコンバータ\AGREX送信" xr:uid="{15408F13-9A92-42D9-9A9E-0D71AE09F87D}"/>
+    <hyperlink ref="C20" r:id="rId1" display="\\tasksv\_RemoteApp入出力ファイル連携用\AppID177_PCA請求データコンバータ\WEB請求書" xr:uid="{B67B3369-09DB-4FC7-A855-3E53D3785A50}"/>
+    <hyperlink ref="C39" r:id="rId2" display="\\xenappsv\共有フォルダ\PCA請求データコンバータ\AGREX送信" xr:uid="{F2066297-CF85-4071-BCFE-90922FA5BA14}"/>
+    <hyperlink ref="C47" r:id="rId3" display="\\xenappsv\共有フォルダ\PCA請求データコンバータ" xr:uid="{95268AD7-155C-4485-94AA-49F352970B71}"/>
+    <hyperlink ref="C25" r:id="rId4" display="\\xenappsv\共有フォルダ\PCA請求データコンバータ\AGREX送信" xr:uid="{15408F13-9A92-42D9-9A9E-0D71AE09F87D}"/>
+    <hyperlink ref="C7" r:id="rId5" display="\\tasksv\_RemoteApp入出力ファイル連携用\AppID177_PCA請求データコンバータ\口座振替送信" xr:uid="{36DCBF8F-91B5-4F4A-A742-42F8BA5D2C47}"/>
   </hyperlinks>
   <pageMargins left="0.25" right="0.25" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" scale="92" orientation="portrait" r:id="rId6"/>
+  <pageSetup paperSize="9" scale="78" orientation="portrait" r:id="rId6"/>
 </worksheet>
 </file>